--- a/myapp/files/9_MethodComparePercent/Scenario 325.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 325.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>10585</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.30397932358151</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -593,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.687285223367698</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>11826</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.45685965807038</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.687285223367698</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>11826</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1.45685965807038</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>0.687285223367698</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>13536</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1.66751668625407</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1.03092783505155</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>11929</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1.46954835625922</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -745,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1.03092783505155</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>13341</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1.64349439356646</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.03092783505155</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>17390</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>2.14229574275697</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1.71821305841924</v>
       </c>
       <c r="K8" t="n">
         <v>1</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>23309</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>2.87146471925947</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>3.09278350515464</v>
       </c>
       <c r="K9" t="n">
         <v>1</v>
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>29523</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>3.63697511290478</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -897,10 +897,10 @@
         <v>1.40845070422535</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>5.49828178694158</v>
       </c>
       <c r="K10" t="n">
         <v>1</v>
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>960</v>
+        <v>33375</v>
       </c>
       <c r="F11" t="n">
-        <v>0.816194662426989</v>
+        <v>4.11150778691857</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J11" t="n">
-        <v>1.81818181818182</v>
+        <v>4.81099656357388</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>1112</v>
+        <v>13137</v>
       </c>
       <c r="F12" t="n">
-        <v>0.945425483977929</v>
+        <v>1.61836337967788</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J12" t="n">
-        <v>3.63636363636364</v>
+        <v>1.71821305841924</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>9052</v>
+        <v>29867</v>
       </c>
       <c r="F13" t="n">
-        <v>7.69603550446782</v>
+        <v>3.67935290103062</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1011,10 +1011,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J13" t="n">
-        <v>5.45454545454545</v>
+        <v>3.09278350515464</v>
       </c>
       <c r="K13" t="n">
         <v>2</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>11575</v>
+        <v>54889</v>
       </c>
       <c r="F14" t="n">
-        <v>9.84109710165874</v>
+        <v>6.76184422220744</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1049,10 +1049,10 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="J14" t="n">
-        <v>7.27272727272727</v>
+        <v>5.84192439862543</v>
       </c>
       <c r="K14" t="n">
         <v>5</v>
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>19072</v>
+        <v>85467</v>
       </c>
       <c r="F15" t="n">
-        <v>16.2150672935495</v>
+        <v>10.5287860981144</v>
       </c>
       <c r="G15" t="n">
         <v>6</v>
@@ -1087,10 +1087,10 @@
         <v>8.45070422535211</v>
       </c>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="J15" t="n">
-        <v>9.09090909090909</v>
+        <v>9.27835051546392</v>
       </c>
       <c r="K15" t="n">
         <v>9</v>
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>15178</v>
+        <v>94232</v>
       </c>
       <c r="F16" t="n">
-        <v>12.90437769408</v>
+        <v>11.6085573566116</v>
       </c>
       <c r="G16" t="n">
         <v>5</v>
@@ -1125,10 +1125,10 @@
         <v>7.04225352112676</v>
       </c>
       <c r="I16" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="J16" t="n">
-        <v>10.9090909090909</v>
+        <v>9.96563573883162</v>
       </c>
       <c r="K16" t="n">
         <v>11</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>9369</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.15417877020644</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1163,10 +1163,10 @@
         <v>1.40845070422535</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.687285223367698</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>15771</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1.9428491178275</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1201,10 +1201,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1.3745704467354</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>2340</v>
+        <v>28226</v>
       </c>
       <c r="F19" t="n">
-        <v>1.98947448966579</v>
+        <v>3.477196068721</v>
       </c>
       <c r="G19" t="n">
         <v>5</v>
@@ -1239,10 +1239,10 @@
         <v>7.04225352112676</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J19" t="n">
-        <v>1.81818181818182</v>
+        <v>4.12371134020619</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>5353</v>
+        <v>66952</v>
       </c>
       <c r="F20" t="n">
-        <v>4.55113544580382</v>
+        <v>8.24790020523661</v>
       </c>
       <c r="G20" t="n">
         <v>19</v>
@@ -1277,16 +1277,16 @@
         <v>26.7605633802817</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="J20" t="n">
-        <v>5.45454545454545</v>
+        <v>8.93470790378007</v>
       </c>
       <c r="K20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L20" t="n">
-        <v>12.6760563380282</v>
+        <v>14.0845070422535</v>
       </c>
     </row>
     <row r="21">
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>8561</v>
+        <v>92114</v>
       </c>
       <c r="F21" t="n">
-        <v>7.27858594274735</v>
+        <v>11.3476383006507</v>
       </c>
       <c r="G21" t="n">
         <v>13</v>
@@ -1315,10 +1315,10 @@
         <v>18.3098591549296</v>
       </c>
       <c r="I21" t="n">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="J21" t="n">
-        <v>9.09090909090909</v>
+        <v>11.6838487972509</v>
       </c>
       <c r="K21" t="n">
         <v>9</v>
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>1820</v>
+        <v>7368</v>
       </c>
       <c r="F22" t="n">
-        <v>1.54736904751783</v>
+        <v>0.907673089858158</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>1.81818181818182</v>
+        <v>0.687285223367698</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>2835</v>
+        <v>10141</v>
       </c>
       <c r="F23" t="n">
-        <v>2.4103248624797</v>
+        <v>1.24928241100049</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
-        <v>1.81818181818182</v>
+        <v>1.03092783505155</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>2835</v>
+        <v>11792</v>
       </c>
       <c r="F24" t="n">
-        <v>2.4103248624797</v>
+        <v>1.45267115575562</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1429,10 +1429,10 @@
         <v>1.40845070422535</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J24" t="n">
-        <v>1.81818181818182</v>
+        <v>1.71821305841924</v>
       </c>
       <c r="K24" t="n">
         <v>2</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>11456</v>
+        <v>40182</v>
       </c>
       <c r="F25" t="n">
-        <v>9.73992297162873</v>
+        <v>4.95007058858313</v>
       </c>
       <c r="G25" t="n">
         <v>8</v>
@@ -1467,16 +1467,16 @@
         <v>11.2676056338028</v>
       </c>
       <c r="I25" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="J25" t="n">
-        <v>16.3636363636364</v>
+        <v>8.24742268041237</v>
       </c>
       <c r="K25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L25" t="n">
-        <v>4.22535211267606</v>
+        <v>2.8169014084507</v>
       </c>
     </row>
     <row r="26">
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>25470</v>
+        <v>75599</v>
       </c>
       <c r="F26" t="n">
-        <v>21.654664637516</v>
+        <v>9.31313489687661</v>
       </c>
       <c r="G26" t="n">
         <v>12</v>
@@ -1505,10 +1505,10 @@
         <v>16.9014084507042</v>
       </c>
       <c r="I26" t="n">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="J26" t="n">
-        <v>23.6363636363636</v>
+        <v>11.340206185567</v>
       </c>
       <c r="K26" t="n">
         <v>16</v>
